--- a/doc/40_外部設計/外部設計_最終版/02_DB定義書_ck5_第1版.xlsx
+++ b/doc/40_外部設計/外部設計_最終版/02_DB定義書_ck5_第1版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E4\doc\40_外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E4\doc\40_外部設計\外部設計_最終版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B7301CA-CB4C-4D63-B631-9B2D9E527E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C05FCC9-389D-454F-B864-68C7426FEDC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="1476" windowWidth="17088" windowHeight="9252" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="comment" sheetId="12" r:id="rId7"/>
     <sheet name="icon" sheetId="13" r:id="rId8"/>
     <sheet name="user_prefecture" sheetId="14" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="130">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -660,6 +659,21 @@
   </si>
   <si>
     <t>register_year</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加状態</t>
+    <rPh sb="0" eb="4">
+      <t>サンカジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：マッチング通知済み、未参加1：参加済み2：終了済み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>participation_status</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1490,24 +1504,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59E3A4D-9A61-4690-AC17-736DECA79B06}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C24" sqref="C24:C26"/>
     </sheetView>
   </sheetViews>
@@ -2122,7 +2123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD76F3A3-11C4-40B9-BD94-BA03AB1529E3}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2695,8 +2696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969D81B0-9B43-4D4D-BBFB-C889119DD7CE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2882,25 +2883,33 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">user_id int </v>
+        <v>user_id int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">participation_status int </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5250,7 +5259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248EAAC9-6BB3-489F-B223-9E18FCD8787C}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
